--- a/artfynd/A 52775-2022.xlsx
+++ b/artfynd/A 52775-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110282828</v>
+        <v>110282820</v>
       </c>
       <c r="B2" t="n">
         <v>89425</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>600787.8656294679</v>
+        <v>600724.7123983201</v>
       </c>
       <c r="R2" t="n">
-        <v>6613904.709995793</v>
+        <v>6614086.574870056</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110282835</v>
+        <v>110282848</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,38 +816,43 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -855,10 +860,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>600805.3583702671</v>
+        <v>600839.9318167433</v>
       </c>
       <c r="R3" t="n">
-        <v>6613969.910894822</v>
+        <v>6613983.990819811</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -927,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110282836</v>
+        <v>110282846</v>
       </c>
       <c r="B4" t="n">
-        <v>89793</v>
+        <v>103288</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -943,34 +948,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4217</v>
+        <v>221144</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -978,10 +988,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600805.3583702671</v>
+        <v>600839.9318167433</v>
       </c>
       <c r="R4" t="n">
-        <v>6613969.910894822</v>
+        <v>6613983.990819811</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1050,10 +1060,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110282820</v>
+        <v>110282836</v>
       </c>
       <c r="B5" t="n">
-        <v>89425</v>
+        <v>89793</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,25 +1072,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5442</v>
+        <v>4217</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1090,7 +1100,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -1101,10 +1111,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600724.7123983201</v>
+        <v>600805.3583702671</v>
       </c>
       <c r="R5" t="n">
-        <v>6614086.574870056</v>
+        <v>6613969.910894822</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1155,7 +1165,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1174,10 +1183,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110282848</v>
+        <v>110282828</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1186,43 +1195,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1230,10 +1234,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>600839.9318167433</v>
+        <v>600787.8656294679</v>
       </c>
       <c r="R6" t="n">
-        <v>6613983.990819811</v>
+        <v>6613904.709995793</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1284,6 +1288,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1302,10 +1307,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110282764</v>
+        <v>110282856</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>89802</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1314,43 +1319,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>5420</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1358,10 +1358,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600749.0751519018</v>
+        <v>600677.6983460309</v>
       </c>
       <c r="R7" t="n">
-        <v>6613971.934424319</v>
+        <v>6613951.301940188</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1412,7 +1412,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1431,10 +1430,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110282846</v>
+        <v>110282835</v>
       </c>
       <c r="B8" t="n">
-        <v>103288</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1443,43 +1442,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221144</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1487,10 +1481,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>600839.9318167433</v>
+        <v>600805.3583702671</v>
       </c>
       <c r="R8" t="n">
-        <v>6613983.990819811</v>
+        <v>6613969.910894822</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1559,10 +1553,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110282856</v>
+        <v>110282764</v>
       </c>
       <c r="B9" t="n">
-        <v>89802</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1571,38 +1565,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5420</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1610,10 +1609,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>600677.6983460309</v>
+        <v>600749.0751519018</v>
       </c>
       <c r="R9" t="n">
-        <v>6613951.301940188</v>
+        <v>6613971.934424319</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1664,6 +1663,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 52775-2022.xlsx
+++ b/artfynd/A 52775-2022.xlsx
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110282848</v>
+        <v>110282846</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,30 +816,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -932,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110282846</v>
+        <v>110282848</v>
       </c>
       <c r="B4" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,30 +944,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110282836</v>
+        <v>110282856</v>
       </c>
       <c r="B5" t="n">
-        <v>89793</v>
+        <v>89802</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1076,21 +1076,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4217</v>
+        <v>5420</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600805.3583702671</v>
+        <v>600677.6983460309</v>
       </c>
       <c r="R5" t="n">
-        <v>6613969.910894822</v>
+        <v>6613951.301940188</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1183,10 +1183,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110282828</v>
+        <v>110282836</v>
       </c>
       <c r="B6" t="n">
-        <v>89425</v>
+        <v>89793</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1195,35 +1195,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5442</v>
+        <v>4217</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -1234,10 +1234,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>600787.8656294679</v>
+        <v>600805.3583702671</v>
       </c>
       <c r="R6" t="n">
-        <v>6613904.709995793</v>
+        <v>6613969.910894822</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1288,7 +1288,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1307,10 +1306,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110282856</v>
+        <v>110282764</v>
       </c>
       <c r="B7" t="n">
-        <v>89802</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1319,38 +1318,43 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5420</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1358,10 +1362,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600677.6983460309</v>
+        <v>600749.0751519018</v>
       </c>
       <c r="R7" t="n">
-        <v>6613951.301940188</v>
+        <v>6613971.934424319</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1412,6 +1416,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1553,10 +1558,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110282764</v>
+        <v>110282828</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1565,43 +1570,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>600749.0751519018</v>
+        <v>600787.8656294679</v>
       </c>
       <c r="R9" t="n">
-        <v>6613971.934424319</v>
+        <v>6613904.709995793</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>

--- a/artfynd/A 52775-2022.xlsx
+++ b/artfynd/A 52775-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110282820</v>
+        <v>110282828</v>
       </c>
       <c r="B2" t="n">
         <v>89425</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>600724.7123983201</v>
+        <v>600787.8656294679</v>
       </c>
       <c r="R2" t="n">
-        <v>6614086.574870056</v>
+        <v>6613904.709995793</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110282846</v>
+        <v>110282848</v>
       </c>
       <c r="B3" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,30 +816,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -932,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110282848</v>
+        <v>110282836</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>89793</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,43 +944,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>4217</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -988,10 +983,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600839.9318167433</v>
+        <v>600805.3583702671</v>
       </c>
       <c r="R4" t="n">
-        <v>6613983.990819811</v>
+        <v>6613969.910894822</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1060,10 +1055,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110282856</v>
+        <v>110282835</v>
       </c>
       <c r="B5" t="n">
-        <v>89802</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1072,25 +1067,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5420</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1100,7 +1095,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -1111,10 +1106,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600677.6983460309</v>
+        <v>600805.3583702671</v>
       </c>
       <c r="R5" t="n">
-        <v>6613951.301940188</v>
+        <v>6613969.910894822</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1183,10 +1178,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110282836</v>
+        <v>110282846</v>
       </c>
       <c r="B6" t="n">
-        <v>89793</v>
+        <v>103288</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1199,34 +1194,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4217</v>
+        <v>221144</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1234,10 +1234,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>600805.3583702671</v>
+        <v>600839.9318167433</v>
       </c>
       <c r="R6" t="n">
-        <v>6613969.910894822</v>
+        <v>6613983.990819811</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1306,10 +1306,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110282764</v>
+        <v>110282820</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1318,43 +1318,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1362,10 +1357,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600749.0751519018</v>
+        <v>600724.7123983201</v>
       </c>
       <c r="R7" t="n">
-        <v>6613971.934424319</v>
+        <v>6614086.574870056</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1435,10 +1430,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110282835</v>
+        <v>110282764</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1447,38 +1442,43 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1486,10 +1486,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>600805.3583702671</v>
+        <v>600749.0751519018</v>
       </c>
       <c r="R8" t="n">
-        <v>6613969.910894822</v>
+        <v>6613971.934424319</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1540,6 +1540,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1558,10 +1559,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110282828</v>
+        <v>110282856</v>
       </c>
       <c r="B9" t="n">
-        <v>89425</v>
+        <v>89802</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1570,30 +1571,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5442</v>
+        <v>5420</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1609,10 +1610,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>600787.8656294679</v>
+        <v>600677.6983460309</v>
       </c>
       <c r="R9" t="n">
-        <v>6613904.709995793</v>
+        <v>6613951.301940188</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1663,7 +1664,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 52775-2022.xlsx
+++ b/artfynd/A 52775-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110282828</v>
+        <v>110282835</v>
       </c>
       <c r="B2" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,31 +696,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>600787.8656294679</v>
+        <v>600805.3583702671</v>
       </c>
       <c r="R2" t="n">
-        <v>6613904.709995793</v>
+        <v>6613969.910894822</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -785,7 +785,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -804,7 +803,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110282848</v>
+        <v>110282764</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -839,7 +838,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -860,10 +859,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>600839.9318167433</v>
+        <v>600749.0751519018</v>
       </c>
       <c r="R3" t="n">
-        <v>6613983.990819811</v>
+        <v>6613971.934424319</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -914,6 +913,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -932,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110282836</v>
+        <v>110282856</v>
       </c>
       <c r="B4" t="n">
-        <v>89793</v>
+        <v>89802</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,21 +948,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4217</v>
+        <v>5420</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600805.3583702671</v>
+        <v>600677.6983460309</v>
       </c>
       <c r="R4" t="n">
-        <v>6613969.910894822</v>
+        <v>6613951.301940188</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110282835</v>
+        <v>110282820</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1071,21 +1071,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600805.3583702671</v>
+        <v>600724.7123983201</v>
       </c>
       <c r="R5" t="n">
-        <v>6613969.910894822</v>
+        <v>6614086.574870056</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1160,6 +1160,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1178,10 +1179,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110282846</v>
+        <v>110282828</v>
       </c>
       <c r="B6" t="n">
-        <v>103288</v>
+        <v>89425</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1190,43 +1191,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1234,10 +1230,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>600839.9318167433</v>
+        <v>600787.8656294679</v>
       </c>
       <c r="R6" t="n">
-        <v>6613983.990819811</v>
+        <v>6613904.709995793</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1288,6 +1284,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1306,10 +1303,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110282820</v>
+        <v>110282846</v>
       </c>
       <c r="B7" t="n">
-        <v>89425</v>
+        <v>103288</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1318,38 +1315,43 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1357,10 +1359,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600724.7123983201</v>
+        <v>600839.9318167433</v>
       </c>
       <c r="R7" t="n">
-        <v>6614086.574870056</v>
+        <v>6613983.990819811</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1411,7 +1413,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1430,10 +1431,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110282764</v>
+        <v>110282836</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>89793</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1442,43 +1443,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>4217</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1486,10 +1482,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>600749.0751519018</v>
+        <v>600805.3583702671</v>
       </c>
       <c r="R8" t="n">
-        <v>6613971.934424319</v>
+        <v>6613969.910894822</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1540,7 +1536,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1559,10 +1554,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110282856</v>
+        <v>110282848</v>
       </c>
       <c r="B9" t="n">
-        <v>89802</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1571,38 +1566,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5420</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1610,10 +1610,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>600677.6983460309</v>
+        <v>600839.9318167433</v>
       </c>
       <c r="R9" t="n">
-        <v>6613951.301940188</v>
+        <v>6613983.990819811</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>

--- a/artfynd/A 52775-2022.xlsx
+++ b/artfynd/A 52775-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110282835</v>
+        <v>110282828</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,31 +696,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>600805.3583702671</v>
+        <v>600787.8656294679</v>
       </c>
       <c r="R2" t="n">
-        <v>6613969.910894822</v>
+        <v>6613904.709995793</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -785,6 +785,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -803,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110282764</v>
+        <v>110282820</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -815,43 +816,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -859,10 +855,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>600749.0751519018</v>
+        <v>600724.7123983201</v>
       </c>
       <c r="R3" t="n">
-        <v>6613971.934424319</v>
+        <v>6614086.574870056</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -932,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110282856</v>
+        <v>110282848</v>
       </c>
       <c r="B4" t="n">
-        <v>89802</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,38 +940,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5420</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -983,10 +984,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600677.6983460309</v>
+        <v>600839.9318167433</v>
       </c>
       <c r="R4" t="n">
-        <v>6613951.301940188</v>
+        <v>6613983.990819811</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1055,10 +1056,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110282820</v>
+        <v>110282764</v>
       </c>
       <c r="B5" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1067,38 +1068,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1106,10 +1112,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600724.7123983201</v>
+        <v>600749.0751519018</v>
       </c>
       <c r="R5" t="n">
-        <v>6614086.574870056</v>
+        <v>6613971.934424319</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1179,10 +1185,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110282828</v>
+        <v>110282856</v>
       </c>
       <c r="B6" t="n">
-        <v>89425</v>
+        <v>89802</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1191,30 +1197,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5442</v>
+        <v>5420</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1230,10 +1236,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>600787.8656294679</v>
+        <v>600677.6983460309</v>
       </c>
       <c r="R6" t="n">
-        <v>6613904.709995793</v>
+        <v>6613951.301940188</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1284,7 +1290,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1303,10 +1308,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110282846</v>
+        <v>110282836</v>
       </c>
       <c r="B7" t="n">
-        <v>103288</v>
+        <v>89793</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1319,39 +1324,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221144</v>
+        <v>4217</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1359,10 +1359,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600839.9318167433</v>
+        <v>600805.3583702671</v>
       </c>
       <c r="R7" t="n">
-        <v>6613983.990819811</v>
+        <v>6613969.910894822</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110282836</v>
+        <v>110282835</v>
       </c>
       <c r="B8" t="n">
-        <v>89793</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1443,25 +1443,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4217</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1554,10 +1554,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110282848</v>
+        <v>110282846</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1566,30 +1566,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>

--- a/artfynd/A 52775-2022.xlsx
+++ b/artfynd/A 52775-2022.xlsx
@@ -928,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110282848</v>
+        <v>110282846</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,30 +940,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110282764</v>
+        <v>110282835</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1068,43 +1068,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1112,10 +1107,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600749.0751519018</v>
+        <v>600805.3583702671</v>
       </c>
       <c r="R5" t="n">
-        <v>6613971.934424319</v>
+        <v>6613969.910894822</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1166,7 +1161,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1185,10 +1179,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110282856</v>
+        <v>110282764</v>
       </c>
       <c r="B6" t="n">
-        <v>89802</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1197,38 +1191,43 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5420</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1236,10 +1235,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>600677.6983460309</v>
+        <v>600749.0751519018</v>
       </c>
       <c r="R6" t="n">
-        <v>6613951.301940188</v>
+        <v>6613971.934424319</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1290,6 +1289,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1308,10 +1308,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110282836</v>
+        <v>110282856</v>
       </c>
       <c r="B7" t="n">
-        <v>89793</v>
+        <v>89802</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1324,21 +1324,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4217</v>
+        <v>5420</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -1359,10 +1359,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600805.3583702671</v>
+        <v>600677.6983460309</v>
       </c>
       <c r="R7" t="n">
-        <v>6613969.910894822</v>
+        <v>6613951.301940188</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110282835</v>
+        <v>110282836</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>89793</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1443,25 +1443,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>4217</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1554,10 +1554,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110282846</v>
+        <v>110282848</v>
       </c>
       <c r="B9" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1566,30 +1566,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>

--- a/artfynd/A 52775-2022.xlsx
+++ b/artfynd/A 52775-2022.xlsx
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110282820</v>
+        <v>110282846</v>
       </c>
       <c r="B3" t="n">
-        <v>89425</v>
+        <v>103288</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,38 +816,43 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5442</v>
+        <v>221144</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -855,10 +860,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>600724.7123983201</v>
+        <v>600839.9318167433</v>
       </c>
       <c r="R3" t="n">
-        <v>6614086.574870056</v>
+        <v>6613983.990819811</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -909,7 +914,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -928,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110282846</v>
+        <v>110282820</v>
       </c>
       <c r="B4" t="n">
-        <v>103288</v>
+        <v>89425</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,43 +944,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -984,10 +983,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600839.9318167433</v>
+        <v>600724.7123983201</v>
       </c>
       <c r="R4" t="n">
-        <v>6613983.990819811</v>
+        <v>6614086.574870056</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1038,6 +1037,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1056,10 +1056,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110282835</v>
+        <v>110282764</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1068,38 +1068,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1107,10 +1112,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600805.3583702671</v>
+        <v>600749.0751519018</v>
       </c>
       <c r="R5" t="n">
-        <v>6613969.910894822</v>
+        <v>6613971.934424319</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1161,6 +1166,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1179,10 +1185,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110282764</v>
+        <v>110282836</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>89793</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1191,43 +1197,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>4217</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1235,10 +1236,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>600749.0751519018</v>
+        <v>600805.3583702671</v>
       </c>
       <c r="R6" t="n">
-        <v>6613971.934424319</v>
+        <v>6613969.910894822</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1289,7 +1290,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110282836</v>
+        <v>110282835</v>
       </c>
       <c r="B8" t="n">
-        <v>89793</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1443,25 +1443,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4217</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/artfynd/A 52775-2022.xlsx
+++ b/artfynd/A 52775-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110282828</v>
+        <v>110282848</v>
       </c>
       <c r="B2" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,43 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -731,10 +736,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>600787.8656294679</v>
+        <v>600839.9318167433</v>
       </c>
       <c r="R2" t="n">
-        <v>6613904.709995793</v>
+        <v>6613983.990819811</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -785,7 +790,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -804,10 +808,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110282846</v>
+        <v>110282828</v>
       </c>
       <c r="B3" t="n">
-        <v>103288</v>
+        <v>89425</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,43 +820,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221144</v>
+        <v>5442</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -860,10 +859,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>600839.9318167433</v>
+        <v>600787.8656294679</v>
       </c>
       <c r="R3" t="n">
-        <v>6613983.990819811</v>
+        <v>6613904.709995793</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -914,6 +913,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -932,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110282820</v>
+        <v>110282764</v>
       </c>
       <c r="B4" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,38 +944,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -983,10 +988,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600724.7123983201</v>
+        <v>600749.0751519018</v>
       </c>
       <c r="R4" t="n">
-        <v>6614086.574870056</v>
+        <v>6613971.934424319</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1056,10 +1061,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110282764</v>
+        <v>110282846</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1068,25 +1073,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1101,7 +1106,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -1112,10 +1117,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600749.0751519018</v>
+        <v>600839.9318167433</v>
       </c>
       <c r="R5" t="n">
-        <v>6613971.934424319</v>
+        <v>6613983.990819811</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1166,7 +1171,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1308,10 +1312,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110282856</v>
+        <v>110282820</v>
       </c>
       <c r="B7" t="n">
-        <v>89802</v>
+        <v>89425</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1320,25 +1324,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5420</v>
+        <v>5442</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1359,10 +1363,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600677.6983460309</v>
+        <v>600724.7123983201</v>
       </c>
       <c r="R7" t="n">
-        <v>6613951.301940188</v>
+        <v>6614086.574870056</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1413,6 +1417,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1554,10 +1559,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110282848</v>
+        <v>110282856</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>89802</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1566,43 +1571,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>5420</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1610,10 +1610,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>600839.9318167433</v>
+        <v>600677.6983460309</v>
       </c>
       <c r="R9" t="n">
-        <v>6613983.990819811</v>
+        <v>6613951.301940188</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
